--- a/data/destination_contacts.xlsx
+++ b/data/destination_contacts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="contacts" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,111 +397,1214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
+        <v>sourceUserId</v>
       </c>
       <c r="B1" t="str">
+        <v>destinationUserId</v>
+      </c>
+      <c r="C1" t="str">
         <v>name</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>email</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>phone</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Conversation_ids</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>7c5e20ef-b1b1-46b6-97ea-c30e0cf50e79</v>
+        <v>799074dd-ec0b-421f-a4ae-f0ed6b196be5</v>
+      </c>
+      <c r="B2" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
       </c>
       <c r="C2" t="str">
-        <v>desleroux@live.co.za</v>
+        <v>Ean</v>
+      </c>
+      <c r="D2" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E2">
+        <v>17752477201</v>
+      </c>
+      <c r="F2" t="str">
+        <v>f1996400-cc0d-4a81-9331-d0f517b84f13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0f4d225b-4c6c-4af0-af81-a6848351ca5d</v>
+        <v>9e592609-2d01-4b67-8fc7-719b58b42ad7</v>
+      </c>
+      <c r="B3" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
       </c>
       <c r="C3" t="str">
-        <v>info@g-vacations.com</v>
+        <v>Klarisse</v>
+      </c>
+      <c r="D3" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>00caba5a-cb60-4900-b273-c5ffab8ddc62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0357ab64-cd8a-426d-a5a0-2da6affbed9c</v>
+        <v>a1ad1908-3125-44d0-8e6f-1fc040f80111</v>
+      </c>
+      <c r="B4" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
+      </c>
+      <c r="C4" t="str">
+        <v>CLARISSE DEVEGA</v>
       </c>
       <c r="D4" t="str">
-        <v>27837171658</v>
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>00caba5a-cb60-4900-b273-c5ffab8ddc62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0bd08b20-78c4-48c1-a14e-00684b38ff56</v>
+        <v>bad98224-40b1-40a6-a3cb-9ff036a20ad9</v>
+      </c>
+      <c r="B5" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
       </c>
       <c r="C5" t="str">
-        <v>hlperrin@outlook.com</v>
+        <v xml:space="preserve">Klarisse </v>
+      </c>
+      <c r="D5" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v>f1996400-cc0d-4a81-9331-d0f517b84f13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>41448ead-c43e-4e94-a75e-1dceaa177469</v>
+        <v>4fc91d9a-3492-4119-b0c0-ee843d46de0f</v>
+      </c>
+      <c r="B6" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
       </c>
       <c r="C6" t="str">
-        <v>irglukhov@hotmail.com</v>
+        <v>Klarisse</v>
+      </c>
+      <c r="D6" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>cce0fbb1-07e4-417a-86d9-83bf95aa8987</v>
+        <v>799074dd-ec0b-421f-a4ae-f0ed6b196be5</v>
+      </c>
+      <c r="B7" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
       </c>
       <c r="C7" t="str">
-        <v>allan_russo@yahoo.com</v>
+        <v>Ean</v>
+      </c>
+      <c r="D7" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E7">
+        <v>17752477201</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>e3657cda-4ae0-4e04-8150-d7c487945f3b</v>
+        <v>9e592609-2d01-4b67-8fc7-719b58b42ad7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
       </c>
       <c r="C8" t="str">
-        <v>davidphibbs64@gmail.com</v>
+        <v>Klarisse</v>
       </c>
       <c r="D8" t="str">
-        <v>353838122846</v>
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0123a67d-0e44-469f-b28e-efc671dfda5b</v>
+        <v>a1ad1908-3125-44d0-8e6f-1fc040f80111</v>
+      </c>
+      <c r="B9" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
       </c>
       <c r="C9" t="str">
-        <v>mgsolorio56@gmail.com</v>
+        <v>CLARISSE DEVEGA</v>
+      </c>
+      <c r="D9" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>6637fc43-bf53-4881-841d-8c555856fd8f</v>
+        <v>bad98224-40b1-40a6-a3cb-9ff036a20ad9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
       </c>
       <c r="C10" t="str">
-        <v>lesleyjacobsen@hotmail.com</v>
+        <v xml:space="preserve">Klarisse </v>
+      </c>
+      <c r="D10" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>63d992e3-6058-4377-ae75-9ba94a61baad</v>
+        <v>4fc91d9a-3492-4119-b0c0-ee843d46de0f</v>
+      </c>
+      <c r="B11" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Klarisse</v>
       </c>
       <c r="D11" t="str">
-        <v>97470152667</v>
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>8e956e15-d7c9-4853-b3de-f332d82c5493</v>
+      </c>
+      <c r="B12" t="str">
+        <v>f2258b69-a4b2-450d-9bba-41237b192bd6</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="D12" t="str">
+        <v>susane56@aol.com</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>8e956e15-d7c9-4853-b3de-f332d82c5493</v>
+      </c>
+      <c r="B13" t="str">
+        <v>f2258b69-a4b2-450d-9bba-41237b192bd6</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="D13" t="str">
+        <v>susane56@aol.com</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>8e956e15-d7c9-4853-b3de-f332d82c5493</v>
+      </c>
+      <c r="B14" t="str">
+        <v>f2258b69-a4b2-450d-9bba-41237b192bd6</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="D14" t="str">
+        <v>susane56@aol.com</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>8e956e15-d7c9-4853-b3de-f332d82c5493</v>
+      </c>
+      <c r="B15" t="str">
+        <v>f2258b69-a4b2-450d-9bba-41237b192bd6</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="D15" t="str">
+        <v>susane56@aol.com</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>8e956e15-d7c9-4853-b3de-f332d82c5493</v>
+      </c>
+      <c r="B16" t="str">
+        <v>f2258b69-a4b2-450d-9bba-41237b192bd6</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="D16" t="str">
+        <v>susane56@aol.com</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>8e956e15-d7c9-4853-b3de-f332d82c5493</v>
+      </c>
+      <c r="B17" t="str">
+        <v>f2258b69-a4b2-450d-9bba-41237b192bd6</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="D17" t="str">
+        <v>susane56@aol.com</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>8e956e15-d7c9-4853-b3de-f332d82c5493</v>
+      </c>
+      <c r="B18" t="str">
+        <v>f2258b69-a4b2-450d-9bba-41237b192bd6</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="D18" t="str">
+        <v>susane56@aol.com</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>799074dd-ec0b-421f-a4ae-f0ed6b196be5</v>
+      </c>
+      <c r="B19" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Ean</v>
+      </c>
+      <c r="D19" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E19">
+        <v>17752477201</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>9e592609-2d01-4b67-8fc7-719b58b42ad7</v>
+      </c>
+      <c r="B20" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D20" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>a1ad1908-3125-44d0-8e6f-1fc040f80111</v>
+      </c>
+      <c r="B21" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
+      </c>
+      <c r="C21" t="str">
+        <v>CLARISSE DEVEGA</v>
+      </c>
+      <c r="D21" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>bad98224-40b1-40a6-a3cb-9ff036a20ad9</v>
+      </c>
+      <c r="B22" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
+      </c>
+      <c r="C22" t="str">
+        <v xml:space="preserve">Klarisse </v>
+      </c>
+      <c r="D22" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>4fc91d9a-3492-4119-b0c0-ee843d46de0f</v>
+      </c>
+      <c r="B23" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D23" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>799074dd-ec0b-421f-a4ae-f0ed6b196be5</v>
+      </c>
+      <c r="B24" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Ean</v>
+      </c>
+      <c r="D24" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E24">
+        <v>17752477201</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>9e592609-2d01-4b67-8fc7-719b58b42ad7</v>
+      </c>
+      <c r="B25" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D25" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>a1ad1908-3125-44d0-8e6f-1fc040f80111</v>
+      </c>
+      <c r="B26" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
+      </c>
+      <c r="C26" t="str">
+        <v>CLARISSE DEVEGA</v>
+      </c>
+      <c r="D26" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>bad98224-40b1-40a6-a3cb-9ff036a20ad9</v>
+      </c>
+      <c r="B27" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
+      </c>
+      <c r="C27" t="str">
+        <v xml:space="preserve">Klarisse </v>
+      </c>
+      <c r="D27" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>4fc91d9a-3492-4119-b0c0-ee843d46de0f</v>
+      </c>
+      <c r="B28" t="str">
+        <v>7e589efd-a956-4dff-ada0-aee2d9765625</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D28" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>799074dd-ec0b-421f-a4ae-f0ed6b196be5</v>
+      </c>
+      <c r="B29" t="str">
+        <v>0b6d2422-58a8-4cbf-86f9-d2b0cf246948</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Ean</v>
+      </c>
+      <c r="D29" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E29">
+        <v>17752477201</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>9e592609-2d01-4b67-8fc7-719b58b42ad7</v>
+      </c>
+      <c r="B30" t="str">
+        <v>0b6d2422-58a8-4cbf-86f9-d2b0cf246948</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D30" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>a1ad1908-3125-44d0-8e6f-1fc040f80111</v>
+      </c>
+      <c r="B31" t="str">
+        <v>0b6d2422-58a8-4cbf-86f9-d2b0cf246948</v>
+      </c>
+      <c r="C31" t="str">
+        <v>CLARISSE DEVEGA</v>
+      </c>
+      <c r="D31" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>bad98224-40b1-40a6-a3cb-9ff036a20ad9</v>
+      </c>
+      <c r="B32" t="str">
+        <v>0b6d2422-58a8-4cbf-86f9-d2b0cf246948</v>
+      </c>
+      <c r="C32" t="str">
+        <v xml:space="preserve">Klarisse </v>
+      </c>
+      <c r="D32" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>4fc91d9a-3492-4119-b0c0-ee843d46de0f</v>
+      </c>
+      <c r="B33" t="str">
+        <v>0b6d2422-58a8-4cbf-86f9-d2b0cf246948</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D33" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>799074dd-ec0b-421f-a4ae-f0ed6b196be5</v>
+      </c>
+      <c r="B34" t="str">
+        <v>9d74369d-e31d-4079-ad13-72f3db5940e5</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Ean</v>
+      </c>
+      <c r="D34" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E34">
+        <v>17752477201</v>
+      </c>
+      <c r="F34" t="str">
+        <v>ce2cf3ac-fec5-443e-a1ce-1c85152c6e05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>9e592609-2d01-4b67-8fc7-719b58b42ad7</v>
+      </c>
+      <c r="B35" t="str">
+        <v>9d74369d-e31d-4079-ad13-72f3db5940e5</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D35" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v>ce2cf3ac-fec5-443e-a1ce-1c85152c6e05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>a1ad1908-3125-44d0-8e6f-1fc040f80111</v>
+      </c>
+      <c r="B36" t="str">
+        <v>9d74369d-e31d-4079-ad13-72f3db5940e5</v>
+      </c>
+      <c r="C36" t="str">
+        <v>CLARISSE DEVEGA</v>
+      </c>
+      <c r="D36" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>5bdd58ad-6807-4d18-93d8-88043f5ed638</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>bad98224-40b1-40a6-a3cb-9ff036a20ad9</v>
+      </c>
+      <c r="B37" t="str">
+        <v>9d74369d-e31d-4079-ad13-72f3db5940e5</v>
+      </c>
+      <c r="C37" t="str">
+        <v xml:space="preserve">Klarisse </v>
+      </c>
+      <c r="D37" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v>5bdd58ad-6807-4d18-93d8-88043f5ed638</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>4fc91d9a-3492-4119-b0c0-ee843d46de0f</v>
+      </c>
+      <c r="B38" t="str">
+        <v>9d74369d-e31d-4079-ad13-72f3db5940e5</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D38" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>799074dd-ec0b-421f-a4ae-f0ed6b196be5</v>
+      </c>
+      <c r="B39" t="str">
+        <v>9d74369d-e31d-4079-ad13-72f3db5940e5</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Ean</v>
+      </c>
+      <c r="D39" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E39">
+        <v>17752477201</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>9e592609-2d01-4b67-8fc7-719b58b42ad7</v>
+      </c>
+      <c r="B40" t="str">
+        <v>9d74369d-e31d-4079-ad13-72f3db5940e5</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D40" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>a1ad1908-3125-44d0-8e6f-1fc040f80111</v>
+      </c>
+      <c r="B41" t="str">
+        <v>9d74369d-e31d-4079-ad13-72f3db5940e5</v>
+      </c>
+      <c r="C41" t="str">
+        <v>CLARISSE DEVEGA</v>
+      </c>
+      <c r="D41" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>bad98224-40b1-40a6-a3cb-9ff036a20ad9</v>
+      </c>
+      <c r="B42" t="str">
+        <v>9d74369d-e31d-4079-ad13-72f3db5940e5</v>
+      </c>
+      <c r="C42" t="str">
+        <v xml:space="preserve">Klarisse </v>
+      </c>
+      <c r="D42" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>4fc91d9a-3492-4119-b0c0-ee843d46de0f</v>
+      </c>
+      <c r="B43" t="str">
+        <v>9d74369d-e31d-4079-ad13-72f3db5940e5</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D43" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>799074dd-ec0b-421f-a4ae-f0ed6b196be5</v>
+      </c>
+      <c r="B44" t="str">
+        <v>608494f6-acca-48a6-8309-3cd55e16bb31</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Ean</v>
+      </c>
+      <c r="D44" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E44">
+        <v>17752477201</v>
+      </c>
+      <c r="F44" t="str">
+        <v>f704b961-06f8-4e9f-8ea0-14a706f530f5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>9e592609-2d01-4b67-8fc7-719b58b42ad7</v>
+      </c>
+      <c r="B45" t="str">
+        <v>608494f6-acca-48a6-8309-3cd55e16bb31</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D45" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v>f704b961-06f8-4e9f-8ea0-14a706f530f5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>a1ad1908-3125-44d0-8e6f-1fc040f80111</v>
+      </c>
+      <c r="B46" t="str">
+        <v>608494f6-acca-48a6-8309-3cd55e16bb31</v>
+      </c>
+      <c r="C46" t="str">
+        <v>CLARISSE DEVEGA</v>
+      </c>
+      <c r="D46" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v>f704b961-06f8-4e9f-8ea0-14a706f530f5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>bad98224-40b1-40a6-a3cb-9ff036a20ad9</v>
+      </c>
+      <c r="B47" t="str">
+        <v>608494f6-acca-48a6-8309-3cd55e16bb31</v>
+      </c>
+      <c r="C47" t="str">
+        <v xml:space="preserve">Klarisse </v>
+      </c>
+      <c r="D47" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v>2ccc836f-4b7d-46ac-9fb6-83c3c7426fdb</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>4fc91d9a-3492-4119-b0c0-ee843d46de0f</v>
+      </c>
+      <c r="B48" t="str">
+        <v>608494f6-acca-48a6-8309-3cd55e16bb31</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D48" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>799074dd-ec0b-421f-a4ae-f0ed6b196be5</v>
+      </c>
+      <c r="B49" t="str">
+        <v>a6ede2c8-e822-41d8-bbd0-8caac05fa847</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Ean</v>
+      </c>
+      <c r="D49" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E49">
+        <v>17752477201</v>
+      </c>
+      <c r="F49" t="str">
+        <v>39130cf3-fc55-4862-9a45-c468c519515e</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>a1ad1908-3125-44d0-8e6f-1fc040f80111</v>
+      </c>
+      <c r="B50" t="str">
+        <v>a6ede2c8-e822-41d8-bbd0-8caac05fa847</v>
+      </c>
+      <c r="C50" t="str">
+        <v>CLARISSE DEVEGA</v>
+      </c>
+      <c r="D50" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>799074dd-ec0b-421f-a4ae-f0ed6b196be5</v>
+      </c>
+      <c r="B51" t="str">
+        <v>da60358d-6c98-4add-847e-7058c27683b3</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Ean</v>
+      </c>
+      <c r="D51" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E51">
+        <v>17752477201</v>
+      </c>
+      <c r="F51" t="str">
+        <v>94037aff-0f84-4726-a47b-37b2451473c6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>9e592609-2d01-4b67-8fc7-719b58b42ad7</v>
+      </c>
+      <c r="B52" t="str">
+        <v>da60358d-6c98-4add-847e-7058c27683b3</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D52" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v>94037aff-0f84-4726-a47b-37b2451473c6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>a1ad1908-3125-44d0-8e6f-1fc040f80111</v>
+      </c>
+      <c r="B53" t="str">
+        <v>da60358d-6c98-4add-847e-7058c27683b3</v>
+      </c>
+      <c r="C53" t="str">
+        <v>CLARISSE DEVEGA</v>
+      </c>
+      <c r="D53" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v>94037aff-0f84-4726-a47b-37b2451473c6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>bad98224-40b1-40a6-a3cb-9ff036a20ad9</v>
+      </c>
+      <c r="B54" t="str">
+        <v>da60358d-6c98-4add-847e-7058c27683b3</v>
+      </c>
+      <c r="C54" t="str">
+        <v xml:space="preserve">Klarisse </v>
+      </c>
+      <c r="D54" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v>94037aff-0f84-4726-a47b-37b2451473c6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>4fc91d9a-3492-4119-b0c0-ee843d46de0f</v>
+      </c>
+      <c r="B55" t="str">
+        <v>da60358d-6c98-4add-847e-7058c27683b3</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D55" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E55" t="str">
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>799074dd-ec0b-421f-a4ae-f0ed6b196be5</v>
+      </c>
+      <c r="B56" t="str">
+        <v>a9b99240-d388-40fe-b49e-ccadec866d1d</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Ean</v>
+      </c>
+      <c r="D56" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E56">
+        <v>17752477201</v>
+      </c>
+      <c r="F56" t="str">
+        <v>54be01b2-dec7-4112-a5f1-84716a81ae2c</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>9e592609-2d01-4b67-8fc7-719b58b42ad7</v>
+      </c>
+      <c r="B57" t="str">
+        <v>a9b99240-d388-40fe-b49e-ccadec866d1d</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D57" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E57" t="str">
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <v>54be01b2-dec7-4112-a5f1-84716a81ae2c</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>a1ad1908-3125-44d0-8e6f-1fc040f80111</v>
+      </c>
+      <c r="B58" t="str">
+        <v>a9b99240-d388-40fe-b49e-ccadec866d1d</v>
+      </c>
+      <c r="C58" t="str">
+        <v>CLARISSE DEVEGA</v>
+      </c>
+      <c r="D58" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E58" t="str">
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <v>54be01b2-dec7-4112-a5f1-84716a81ae2c</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>bad98224-40b1-40a6-a3cb-9ff036a20ad9</v>
+      </c>
+      <c r="B59" t="str">
+        <v>a9b99240-d388-40fe-b49e-ccadec866d1d</v>
+      </c>
+      <c r="C59" t="str">
+        <v xml:space="preserve">Klarisse </v>
+      </c>
+      <c r="D59" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E59" t="str">
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <v>54be01b2-dec7-4112-a5f1-84716a81ae2c</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>4fc91d9a-3492-4119-b0c0-ee843d46de0f</v>
+      </c>
+      <c r="B60" t="str">
+        <v>a9b99240-d388-40fe-b49e-ccadec866d1d</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Klarisse</v>
+      </c>
+      <c r="D60" t="str">
+        <v>klarissedevega@gmail.com</v>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F60"/>
   </ignoredErrors>
 </worksheet>
 </file>